--- a/biology/Botanique/Lilium_lancifolium/Lilium_lancifolium.xlsx
+++ b/biology/Botanique/Lilium_lancifolium/Lilium_lancifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Lilium lancifolium (aussi appelé lis tigré, mais ce nom est attribué à plusieurs espèces) est une espèce de lys originaire d'Asie de l'Est (Chine, Corée, Japon).
 Synonyme
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres Lys, les fleurs sont portées par une tige érigée de 80 à 200 cm de haut. Les feuilles, lancéolées, mesurent 6 à 9 cm de long et 1 à 2 cm de large. À l'aisselle de celles-ci la plante produit des bulbilles assurant à la plante un moyen de dissémination végétatif.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est cultivée en Asie, notamment au Japon, pour ses bulbilles comestibles et pour l'ornementation.
 Elle a été naturalisée dans certaines régions d'Amérique du Nord. Elle est connue dans les pays anglo-saxons sous le nom de Tiger Lily (lis tigré), qui désigne cependant aussi plusieurs autres espèces.
